--- a/output.xlsx
+++ b/output.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,10 +96,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>125.0</v>
+        <v>300.0</v>
       </c>
       <c r="B2" t="n">
-        <v>360.0</v>
+        <v>300.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -110,13 +110,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>125.0</v>
+        <v>300.0</v>
       </c>
       <c r="B3" t="n">
-        <v>360.0</v>
+        <v>300.0</v>
       </c>
       <c r="C3" t="n">
-        <v>125.0</v>
+        <v>300.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -124,884 +124,660 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>198.0</v>
+        <v>300.0</v>
       </c>
       <c r="B4" t="n">
-        <v>239.0</v>
+        <v>300.0</v>
       </c>
       <c r="C4" t="n">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>198.0</v>
+        <v>200.0</v>
       </c>
       <c r="B5" t="n">
-        <v>239.0</v>
+        <v>200.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>360.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>198.0</v>
+        <v>200.0</v>
       </c>
       <c r="B6" t="n">
-        <v>239.0</v>
+        <v>200.0</v>
       </c>
       <c r="C6" t="n">
-        <v>198.0</v>
+        <v>200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>360.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85.0</v>
+        <v>200.0</v>
       </c>
       <c r="B7" t="n">
-        <v>99.0</v>
+        <v>200.0</v>
       </c>
       <c r="C7" t="n">
-        <v>396.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>360.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85.0</v>
+        <v>200.0</v>
       </c>
       <c r="B8" t="n">
-        <v>99.0</v>
+        <v>200.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="D8" t="n">
-        <v>599.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85.0</v>
+        <v>200.0</v>
       </c>
       <c r="B9" t="n">
-        <v>99.0</v>
+        <v>200.0</v>
       </c>
       <c r="C9" t="n">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>599.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67.0</v>
+        <v>200.0</v>
       </c>
       <c r="B10" t="n">
-        <v>99.0</v>
+        <v>200.0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.0</v>
+        <v>200.0</v>
       </c>
       <c r="D10" t="n">
-        <v>599.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57.0</v>
+        <v>200.0</v>
       </c>
       <c r="B11" t="n">
-        <v>98.0</v>
+        <v>200.0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>599.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>40.0</v>
+        <v>200.0</v>
       </c>
       <c r="B12" t="n">
-        <v>97.0</v>
+        <v>200.0</v>
       </c>
       <c r="C12" t="n">
-        <v>448.0</v>
+        <v>200.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>40.0</v>
+        <v>130.0</v>
       </c>
       <c r="B13" t="n">
-        <v>97.0</v>
+        <v>200.0</v>
       </c>
       <c r="C13" t="n">
-        <v>294.0</v>
+        <v>300.0</v>
       </c>
       <c r="D13" t="n">
-        <v>599.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>45.0</v>
+        <v>130.0</v>
       </c>
       <c r="B14" t="n">
-        <v>90.0</v>
+        <v>200.0</v>
       </c>
       <c r="C14" t="n">
-        <v>334.0</v>
+        <v>430.0</v>
       </c>
       <c r="D14" t="n">
-        <v>599.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>45.0</v>
+        <v>150.0</v>
       </c>
       <c r="B15" t="n">
-        <v>90.0</v>
+        <v>160.0</v>
       </c>
       <c r="C15" t="n">
-        <v>379.0</v>
+        <v>400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>599.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="B16" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="C16" t="n">
-        <v>424.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>599.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="B17" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>698.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="B18" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.0</v>
+        <v>200.0</v>
       </c>
       <c r="D18" t="n">
-        <v>698.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="B19" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="C19" t="n">
-        <v>90.0</v>
+        <v>300.0</v>
       </c>
       <c r="D19" t="n">
-        <v>698.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>102.0</v>
+        <v>100.0</v>
       </c>
       <c r="B20" t="n">
-        <v>78.0</v>
+        <v>100.0</v>
       </c>
       <c r="C20" t="n">
-        <v>135.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>698.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50.0</v>
+        <v>140.0</v>
       </c>
       <c r="B21" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="C21" t="n">
-        <v>237.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>698.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56.0</v>
+        <v>90.0</v>
       </c>
       <c r="B22" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
       <c r="C22" t="n">
-        <v>287.0</v>
+        <v>400.0</v>
       </c>
       <c r="D22" t="n">
-        <v>698.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56.0</v>
+        <v>90.0</v>
       </c>
       <c r="B23" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
       <c r="C23" t="n">
-        <v>343.0</v>
+        <v>490.0</v>
       </c>
       <c r="D23" t="n">
-        <v>698.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>74.0</v>
+        <v>90.0</v>
       </c>
       <c r="B24" t="n">
-        <v>58.0</v>
+        <v>90.0</v>
       </c>
       <c r="C24" t="n">
-        <v>399.0</v>
+        <v>400.0</v>
       </c>
       <c r="D24" t="n">
-        <v>698.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>74.0</v>
+        <v>90.0</v>
       </c>
       <c r="B25" t="n">
-        <v>58.0</v>
+        <v>90.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>490.0</v>
       </c>
       <c r="D25" t="n">
-        <v>788.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>74.0</v>
+        <v>90.0</v>
       </c>
       <c r="B26" t="n">
-        <v>58.0</v>
+        <v>90.0</v>
       </c>
       <c r="C26" t="n">
-        <v>74.0</v>
+        <v>400.0</v>
       </c>
       <c r="D26" t="n">
-        <v>788.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.0</v>
+        <v>90.0</v>
       </c>
       <c r="B27" t="n">
-        <v>55.0</v>
+        <v>90.0</v>
       </c>
       <c r="C27" t="n">
-        <v>469.0</v>
+        <v>490.0</v>
       </c>
       <c r="D27" t="n">
-        <v>599.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="B28" t="n">
-        <v>44.0</v>
+        <v>90.0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.0</v>
+        <v>400.0</v>
       </c>
       <c r="D28" t="n">
-        <v>788.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="B29" t="n">
-        <v>44.0</v>
+        <v>90.0</v>
       </c>
       <c r="C29" t="n">
-        <v>181.0</v>
+        <v>490.0</v>
       </c>
       <c r="D29" t="n">
-        <v>788.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="B30" t="n">
-        <v>44.0</v>
+        <v>90.0</v>
       </c>
       <c r="C30" t="n">
-        <v>214.0</v>
+        <v>240.0</v>
       </c>
       <c r="D30" t="n">
-        <v>788.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="B31" t="n">
-        <v>44.0</v>
+        <v>90.0</v>
       </c>
       <c r="C31" t="n">
-        <v>247.0</v>
+        <v>330.0</v>
       </c>
       <c r="D31" t="n">
-        <v>788.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="B32" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="C32" t="n">
-        <v>280.0</v>
+        <v>420.0</v>
       </c>
       <c r="D32" t="n">
-        <v>788.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="B33" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="C33" t="n">
-        <v>313.0</v>
+        <v>470.0</v>
       </c>
       <c r="D33" t="n">
-        <v>788.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="B34" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="C34" t="n">
-        <v>378.0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>788.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="B35" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="C35" t="n">
-        <v>473.0</v>
+        <v>50.0</v>
       </c>
       <c r="D35" t="n">
-        <v>698.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="B36" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="C36" t="n">
-        <v>443.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>788.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="B37" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="C37" t="n">
-        <v>466.0</v>
+        <v>150.0</v>
       </c>
       <c r="D37" t="n">
-        <v>788.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="B38" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="D38" t="n">
-        <v>846.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>123.0</v>
+        <v>50.0</v>
       </c>
       <c r="B39" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="C39" t="n">
-        <v>23.0</v>
+        <v>250.0</v>
       </c>
       <c r="D39" t="n">
-        <v>846.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="B40" t="n">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="C40" t="n">
-        <v>146.0</v>
+        <v>300.0</v>
       </c>
       <c r="D40" t="n">
-        <v>846.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="B41" t="n">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0</v>
+        <v>350.0</v>
       </c>
       <c r="D41" t="n">
-        <v>846.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="B42" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="C42" t="n">
-        <v>186.0</v>
+        <v>560.0</v>
       </c>
       <c r="D42" t="n">
-        <v>846.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="B43" t="n">
-        <v>35.0</v>
+        <v>22.0</v>
       </c>
       <c r="C43" t="n">
-        <v>206.0</v>
+        <v>550.0</v>
       </c>
       <c r="D43" t="n">
-        <v>846.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="B44" t="n">
-        <v>35.0</v>
+        <v>22.0</v>
       </c>
       <c r="C44" t="n">
-        <v>226.0</v>
+        <v>572.0</v>
       </c>
       <c r="D44" t="n">
-        <v>846.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>33.0</v>
+        <v>22.0</v>
       </c>
       <c r="C45" t="n">
-        <v>488.0</v>
+        <v>520.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="B46" t="n">
-        <v>33.0</v>
+        <v>22.0</v>
       </c>
       <c r="C46" t="n">
-        <v>481.0</v>
+        <v>542.0</v>
       </c>
       <c r="D46" t="n">
-        <v>360.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="B47" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="C47" t="n">
-        <v>489.0</v>
+        <v>400.0</v>
       </c>
       <c r="D47" t="n">
-        <v>788.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="B48" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="C48" t="n">
-        <v>246.0</v>
+        <v>422.0</v>
       </c>
       <c r="D48" t="n">
-        <v>846.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="B49" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="C49" t="n">
-        <v>254.0</v>
+        <v>444.0</v>
       </c>
       <c r="D49" t="n">
-        <v>846.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B50" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="C50" t="n">
-        <v>262.0</v>
+        <v>466.0</v>
       </c>
       <c r="D50" t="n">
-        <v>846.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>285.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>846.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>308.0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>846.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>846.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>389.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>846.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>458.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>846.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>188.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>316.0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>882.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>904.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>492.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>494.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>360.0</v>
+        <v>1600.0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="output0" r:id="rId3" sheetId="1"/>
+    <sheet name="Join" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -96,10 +96,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>300.0</v>
+        <v>130.0</v>
       </c>
       <c r="B2" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -110,13 +110,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>300.0</v>
+        <v>130.0</v>
       </c>
       <c r="B3" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="C3" t="n">
-        <v>300.0</v>
+        <v>130.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -124,660 +124,660 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="B4" t="n">
-        <v>300.0</v>
+        <v>160.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>260.0</v>
       </c>
       <c r="D4" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B5" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B6" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C6" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B7" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="D7" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B8" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C8" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="D8" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B9" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1000.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>200.0</v>
+        <v>140.0</v>
       </c>
       <c r="B10" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1000.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="B11" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>240.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1200.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="B12" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="C12" t="n">
-        <v>200.0</v>
+        <v>330.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1200.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130.0</v>
+        <v>90.0</v>
       </c>
       <c r="B13" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="C13" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130.0</v>
+        <v>90.0</v>
       </c>
       <c r="B14" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="C14" t="n">
-        <v>430.0</v>
+        <v>90.0</v>
       </c>
       <c r="D14" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>150.0</v>
+        <v>90.0</v>
       </c>
       <c r="B15" t="n">
-        <v>160.0</v>
+        <v>90.0</v>
       </c>
       <c r="C15" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="D15" t="n">
         <v>400.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="B16" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1400.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="B17" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1400.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="B18" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C18" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1400.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="B19" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C19" t="n">
-        <v>300.0</v>
+        <v>180.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1400.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="B20" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1500.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>140.0</v>
+        <v>50.0</v>
       </c>
       <c r="B21" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="n">
-        <v>100.0</v>
+        <v>360.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1500.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B22" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C22" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="D22" t="n">
         <v>400.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>800.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B23" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C23" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="D23" t="n">
         <v>490.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>800.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B24" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C24" t="n">
-        <v>400.0</v>
+        <v>410.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1000.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B25" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C25" t="n">
-        <v>490.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1000.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B26" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C26" t="n">
-        <v>400.0</v>
+        <v>50.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1200.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B27" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C27" t="n">
-        <v>490.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1200.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B28" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C28" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1400.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B29" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C29" t="n">
-        <v>490.0</v>
+        <v>200.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="B30" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="C30" t="n">
-        <v>240.0</v>
+        <v>250.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1500.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="C31" t="n">
-        <v>330.0</v>
+        <v>410.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="B32" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="C32" t="n">
-        <v>420.0</v>
+        <v>440.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="B33" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="C33" t="n">
-        <v>470.0</v>
+        <v>400.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1500.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="B34" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>430.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1600.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B35" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C35" t="n">
-        <v>50.0</v>
+        <v>420.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B36" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n">
-        <v>100.0</v>
+        <v>442.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B37" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C37" t="n">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B38" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C38" t="n">
-        <v>200.0</v>
+        <v>322.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B39" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C39" t="n">
-        <v>250.0</v>
+        <v>344.0</v>
       </c>
       <c r="D39" t="n">
-        <v>1600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B40" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C40" t="n">
-        <v>300.0</v>
+        <v>366.0</v>
       </c>
       <c r="D40" t="n">
-        <v>1600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="B41" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.0</v>
+        <v>388.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="B42" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="C42" t="n">
-        <v>560.0</v>
+        <v>410.0</v>
       </c>
       <c r="D42" t="n">
-        <v>300.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B43" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C43" t="n">
-        <v>550.0</v>
+        <v>432.0</v>
       </c>
       <c r="D43" t="n">
-        <v>600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B44" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C44" t="n">
-        <v>572.0</v>
+        <v>452.0</v>
       </c>
       <c r="D44" t="n">
-        <v>600.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B45" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C45" t="n">
-        <v>520.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1500.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B46" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C46" t="n">
-        <v>542.0</v>
+        <v>20.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1500.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B47" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C47" t="n">
-        <v>400.0</v>
+        <v>40.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1600.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B48" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C48" t="n">
-        <v>422.0</v>
+        <v>60.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1600.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B49" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C49" t="n">
-        <v>444.0</v>
+        <v>80.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1600.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B50" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C50" t="n">
-        <v>466.0</v>
+        <v>100.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1600.0</v>
+        <v>630.0</v>
       </c>
     </row>
   </sheetData>
